--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H2">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I2">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J2">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.160070740901795</v>
+        <v>0.3105913333333333</v>
       </c>
       <c r="N2">
-        <v>0.160070740901795</v>
+        <v>0.931774</v>
       </c>
       <c r="O2">
-        <v>0.01703564124458196</v>
+        <v>0.03128659259739168</v>
       </c>
       <c r="P2">
-        <v>0.01703564124458196</v>
+        <v>0.03928326902580845</v>
       </c>
       <c r="Q2">
-        <v>8.777061700093233</v>
+        <v>20.28623287038467</v>
       </c>
       <c r="R2">
-        <v>8.777061700093233</v>
+        <v>182.576095833462</v>
       </c>
       <c r="S2">
-        <v>0.002752123169625786</v>
+        <v>0.005575134202448157</v>
       </c>
       <c r="T2">
-        <v>0.002752123169625786</v>
+        <v>0.007389045406239088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H3">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I3">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J3">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.24294532588905</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N3">
-        <v>3.24294532588905</v>
+        <v>10.180718</v>
       </c>
       <c r="O3">
-        <v>0.3451327384155332</v>
+        <v>0.3418425244908446</v>
       </c>
       <c r="P3">
-        <v>0.3451327384155332</v>
+        <v>0.4292155437583475</v>
       </c>
       <c r="Q3">
-        <v>177.8184511110611</v>
+        <v>221.6507609524593</v>
       </c>
       <c r="R3">
-        <v>177.8184511110611</v>
+        <v>1994.856848572134</v>
       </c>
       <c r="S3">
-        <v>0.05575650439879246</v>
+        <v>0.06091484536730966</v>
       </c>
       <c r="T3">
-        <v>0.05575650439879246</v>
+        <v>0.08073394146017766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H4">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I4">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J4">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.99321026855207</v>
+        <v>0.1456443333333333</v>
       </c>
       <c r="N4">
-        <v>5.99321026855207</v>
+        <v>0.436933</v>
       </c>
       <c r="O4">
-        <v>0.6378316203398848</v>
+        <v>0.01467109488283225</v>
       </c>
       <c r="P4">
-        <v>0.6378316203398848</v>
+        <v>0.01842094390405137</v>
       </c>
       <c r="Q4">
-        <v>328.6220580498605</v>
+        <v>9.512740843547665</v>
       </c>
       <c r="R4">
-        <v>328.6220580498605</v>
+        <v>85.61466759192899</v>
       </c>
       <c r="S4">
-        <v>0.1030422721079338</v>
+        <v>0.00261432505358411</v>
       </c>
       <c r="T4">
-        <v>0.1030422721079338</v>
+        <v>0.003464915072200194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>226.758476880865</v>
+        <v>65.314871</v>
       </c>
       <c r="H5">
-        <v>226.758476880865</v>
+        <v>195.944613</v>
       </c>
       <c r="I5">
-        <v>0.6680911455631148</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J5">
-        <v>0.6680911455631148</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.160070740901795</v>
+        <v>0.01495533333333333</v>
       </c>
       <c r="N5">
-        <v>0.160070740901795</v>
+        <v>0.044866</v>
       </c>
       <c r="O5">
-        <v>0.01703564124458196</v>
+        <v>0.001506485761004895</v>
       </c>
       <c r="P5">
-        <v>0.01703564124458196</v>
+        <v>0.001891535016121851</v>
       </c>
       <c r="Q5">
-        <v>36.29739740008261</v>
+        <v>0.9768056674286666</v>
       </c>
       <c r="R5">
-        <v>36.29739740008261</v>
+        <v>8.791251006857999</v>
       </c>
       <c r="S5">
-        <v>0.01138136107449501</v>
+        <v>0.0002684491852391664</v>
       </c>
       <c r="T5">
-        <v>0.01138136107449501</v>
+        <v>0.0003557911158674989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>226.758476880865</v>
+        <v>65.314871</v>
       </c>
       <c r="H6">
-        <v>226.758476880865</v>
+        <v>195.944613</v>
       </c>
       <c r="I6">
-        <v>0.6680911455631148</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J6">
-        <v>0.6680911455631148</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.24294532588905</v>
+        <v>6.0625345</v>
       </c>
       <c r="N6">
-        <v>3.24294532588905</v>
+        <v>12.125069</v>
       </c>
       <c r="O6">
-        <v>0.3451327384155332</v>
+        <v>0.6106933022679266</v>
       </c>
       <c r="P6">
-        <v>0.3451327384155332</v>
+        <v>0.5111887082956706</v>
       </c>
       <c r="Q6">
-        <v>735.3653427065215</v>
+        <v>395.9736588005495</v>
       </c>
       <c r="R6">
-        <v>735.3653427065215</v>
+        <v>2375.841952803297</v>
       </c>
       <c r="S6">
-        <v>0.2305801265793684</v>
+        <v>0.1088228801548614</v>
       </c>
       <c r="T6">
-        <v>0.2305801265793684</v>
+        <v>0.09615280679089776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>226.758476880865</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H7">
-        <v>226.758476880865</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I7">
-        <v>0.6680911455631148</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J7">
-        <v>0.6680911455631148</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.99321026855207</v>
+        <v>0.3105913333333333</v>
       </c>
       <c r="N7">
-        <v>5.99321026855207</v>
+        <v>0.931774</v>
       </c>
       <c r="O7">
-        <v>0.6378316203398848</v>
+        <v>0.03128659259739168</v>
       </c>
       <c r="P7">
-        <v>0.6378316203398848</v>
+        <v>0.03928326902580845</v>
       </c>
       <c r="Q7">
-        <v>1359.011232123627</v>
+        <v>75.47432594983289</v>
       </c>
       <c r="R7">
-        <v>1359.011232123627</v>
+        <v>679.2689335484961</v>
       </c>
       <c r="S7">
-        <v>0.4261296579092513</v>
+        <v>0.02074212095947684</v>
       </c>
       <c r="T7">
-        <v>0.4261296579092513</v>
+        <v>0.02749072363567073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.8216170092744</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H8">
-        <v>57.8216170092744</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I8">
-        <v>0.1703579547605332</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J8">
-        <v>0.1703579547605332</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.160070740901795</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N8">
-        <v>0.160070740901795</v>
+        <v>10.180718</v>
       </c>
       <c r="O8">
-        <v>0.01703564124458196</v>
+        <v>0.3418425244908446</v>
       </c>
       <c r="P8">
-        <v>0.01703564124458196</v>
+        <v>0.4292155437583475</v>
       </c>
       <c r="Q8">
-        <v>9.255549074814384</v>
+        <v>824.6450627891857</v>
       </c>
       <c r="R8">
-        <v>9.255549074814384</v>
+        <v>7421.805565102672</v>
       </c>
       <c r="S8">
-        <v>0.002902157000461167</v>
+        <v>0.2266318701856063</v>
       </c>
       <c r="T8">
-        <v>0.002902157000461167</v>
+        <v>0.3003682276503728</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.8216170092744</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H9">
-        <v>57.8216170092744</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I9">
-        <v>0.1703579547605332</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J9">
-        <v>0.1703579547605332</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.24294532588905</v>
+        <v>0.1456443333333333</v>
       </c>
       <c r="N9">
-        <v>3.24294532588905</v>
+        <v>0.436933</v>
       </c>
       <c r="O9">
-        <v>0.3451327384155332</v>
+        <v>0.01467109488283225</v>
       </c>
       <c r="P9">
-        <v>0.3451327384155332</v>
+        <v>0.01842094390405137</v>
       </c>
       <c r="Q9">
-        <v>187.5123426155732</v>
+        <v>35.39186933767022</v>
       </c>
       <c r="R9">
-        <v>187.5123426155732</v>
+        <v>318.526824039032</v>
       </c>
       <c r="S9">
-        <v>0.05879610743737233</v>
+        <v>0.009726518594838548</v>
       </c>
       <c r="T9">
-        <v>0.05879610743737233</v>
+        <v>0.0128911134570234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>243.0020346666667</v>
+      </c>
+      <c r="H10">
+        <v>729.0061040000001</v>
+      </c>
+      <c r="I10">
+        <v>0.6629715554644989</v>
+      </c>
+      <c r="J10">
+        <v>0.6998074324621454</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.01495533333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.044866</v>
+      </c>
+      <c r="O10">
+        <v>0.001506485761004895</v>
+      </c>
+      <c r="P10">
+        <v>0.001891535016121851</v>
+      </c>
+      <c r="Q10">
+        <v>3.634176429118222</v>
+      </c>
+      <c r="R10">
+        <v>32.707587862064</v>
+      </c>
+      <c r="S10">
+        <v>0.0009987572082585346</v>
+      </c>
+      <c r="T10">
+        <v>0.001323710263044475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>243.0020346666667</v>
+      </c>
+      <c r="H11">
+        <v>729.0061040000001</v>
+      </c>
+      <c r="I11">
+        <v>0.6629715554644989</v>
+      </c>
+      <c r="J11">
+        <v>0.6998074324621454</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.0625345</v>
+      </c>
+      <c r="N11">
+        <v>12.125069</v>
+      </c>
+      <c r="O11">
+        <v>0.6106933022679266</v>
+      </c>
+      <c r="P11">
+        <v>0.5111887082956706</v>
+      </c>
+      <c r="Q11">
+        <v>1473.208218736863</v>
+      </c>
+      <c r="R11">
+        <v>8839.249312421176</v>
+      </c>
+      <c r="S11">
+        <v>0.4048722885163187</v>
+      </c>
+      <c r="T11">
+        <v>0.3577336574560339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2323533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.69706</v>
+      </c>
+      <c r="I12">
+        <v>0.0006339191810828563</v>
+      </c>
+      <c r="J12">
+        <v>0.0006691408565655344</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3105913333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.931774</v>
+      </c>
+      <c r="O12">
+        <v>0.03128659259739168</v>
+      </c>
+      <c r="P12">
+        <v>0.03928326902580845</v>
+      </c>
+      <c r="Q12">
+        <v>0.07216693160444444</v>
+      </c>
+      <c r="R12">
+        <v>0.64950238444</v>
+      </c>
+      <c r="S12">
+        <v>1.983317115821149E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.628604028462379E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2323533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.69706</v>
+      </c>
+      <c r="I13">
+        <v>0.0006339191810828563</v>
+      </c>
+      <c r="J13">
+        <v>0.0006691408565655344</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.393572666666666</v>
+      </c>
+      <c r="N13">
+        <v>10.180718</v>
+      </c>
+      <c r="O13">
+        <v>0.3418425244908446</v>
+      </c>
+      <c r="P13">
+        <v>0.4292155437583475</v>
+      </c>
+      <c r="Q13">
+        <v>0.7885079210088888</v>
+      </c>
+      <c r="R13">
+        <v>7.096571289079999</v>
+      </c>
+      <c r="S13">
+        <v>0.0002167005331845324</v>
+      </c>
+      <c r="T13">
+        <v>0.0002872056566017023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2323533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.69706</v>
+      </c>
+      <c r="I14">
+        <v>0.0006339191810828563</v>
+      </c>
+      <c r="J14">
+        <v>0.0006691408565655344</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1456443333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.436933</v>
+      </c>
+      <c r="O14">
+        <v>0.01467109488283225</v>
+      </c>
+      <c r="P14">
+        <v>0.01842094390405137</v>
+      </c>
+      <c r="Q14">
+        <v>0.03384094633111111</v>
+      </c>
+      <c r="R14">
+        <v>0.30456851698</v>
+      </c>
+      <c r="S14">
+        <v>9.300288453713905E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.232620618270259E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2323533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.69706</v>
+      </c>
+      <c r="I15">
+        <v>0.0006339191810828563</v>
+      </c>
+      <c r="J15">
+        <v>0.0006691408565655344</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.01495533333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.044866</v>
+      </c>
+      <c r="O15">
+        <v>0.001506485761004895</v>
+      </c>
+      <c r="P15">
+        <v>0.001891535016121851</v>
+      </c>
+      <c r="Q15">
+        <v>0.003474921551111111</v>
+      </c>
+      <c r="R15">
+        <v>0.03127429396</v>
+      </c>
+      <c r="S15">
+        <v>9.549902199292067E-07</v>
+      </c>
+      <c r="T15">
+        <v>1.265703360911477E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2323533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.69706</v>
+      </c>
+      <c r="I16">
+        <v>0.0006339191810828563</v>
+      </c>
+      <c r="J16">
+        <v>0.0006691408565655344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.0625345</v>
+      </c>
+      <c r="N16">
+        <v>12.125069</v>
+      </c>
+      <c r="O16">
+        <v>0.6106933022679266</v>
+      </c>
+      <c r="P16">
+        <v>0.5111887082956706</v>
+      </c>
+      <c r="Q16">
+        <v>1.408650099523333</v>
+      </c>
+      <c r="R16">
+        <v>8.45190059714</v>
+      </c>
+      <c r="S16">
+        <v>0.0003871301980664693</v>
+      </c>
+      <c r="T16">
+        <v>0.0003420572501355941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.316033</v>
+      </c>
+      <c r="I17">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J17">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3105913333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.931774</v>
+      </c>
+      <c r="O17">
+        <v>0.03128659259739168</v>
+      </c>
+      <c r="P17">
+        <v>0.03928326902580845</v>
+      </c>
+      <c r="Q17">
+        <v>0.03271903694911111</v>
+      </c>
+      <c r="R17">
+        <v>0.294471332542</v>
+      </c>
+      <c r="S17">
+        <v>8.991961352886482E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.191756257606305E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.316033</v>
+      </c>
+      <c r="I18">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J18">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.393572666666666</v>
+      </c>
+      <c r="N18">
+        <v>10.180718</v>
+      </c>
+      <c r="O18">
+        <v>0.3418425244908446</v>
+      </c>
+      <c r="P18">
+        <v>0.4292155437583475</v>
+      </c>
+      <c r="Q18">
+        <v>0.3574936501882222</v>
+      </c>
+      <c r="R18">
+        <v>3.217442851694</v>
+      </c>
+      <c r="S18">
+        <v>9.824766821207263E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001302132747149539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>57.8216170092744</v>
-      </c>
-      <c r="H10">
-        <v>57.8216170092744</v>
-      </c>
-      <c r="I10">
-        <v>0.1703579547605332</v>
-      </c>
-      <c r="J10">
-        <v>0.1703579547605332</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.99321026855207</v>
-      </c>
-      <c r="N10">
-        <v>5.99321026855207</v>
-      </c>
-      <c r="O10">
-        <v>0.6378316203398848</v>
-      </c>
-      <c r="P10">
-        <v>0.6378316203398848</v>
-      </c>
-      <c r="Q10">
-        <v>346.5371088042684</v>
-      </c>
-      <c r="R10">
-        <v>346.5371088042684</v>
-      </c>
-      <c r="S10">
-        <v>0.1086596903226997</v>
-      </c>
-      <c r="T10">
-        <v>0.1086596903226997</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.316033</v>
+      </c>
+      <c r="I19">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J19">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1456443333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.436933</v>
+      </c>
+      <c r="O19">
+        <v>0.01467109488283225</v>
+      </c>
+      <c r="P19">
+        <v>0.01842094390405137</v>
+      </c>
+      <c r="Q19">
+        <v>0.01534280519877778</v>
+      </c>
+      <c r="R19">
+        <v>0.138085246789</v>
+      </c>
+      <c r="S19">
+        <v>4.216563941256946E-06</v>
+      </c>
+      <c r="T19">
+        <v>5.588454248612815E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.316033</v>
+      </c>
+      <c r="I20">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J20">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.01495533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.044866</v>
+      </c>
+      <c r="O20">
+        <v>0.001506485761004895</v>
+      </c>
+      <c r="P20">
+        <v>0.001891535016121851</v>
+      </c>
+      <c r="Q20">
+        <v>0.001575459619777778</v>
+      </c>
+      <c r="R20">
+        <v>0.014179136578</v>
+      </c>
+      <c r="S20">
+        <v>4.329733798738803E-07</v>
+      </c>
+      <c r="T20">
+        <v>5.738444757394442E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.316033</v>
+      </c>
+      <c r="I21">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J21">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.0625345</v>
+      </c>
+      <c r="N21">
+        <v>12.125069</v>
+      </c>
+      <c r="O21">
+        <v>0.6106933022679266</v>
+      </c>
+      <c r="P21">
+        <v>0.5111887082956706</v>
+      </c>
+      <c r="Q21">
+        <v>0.6386536552128333</v>
+      </c>
+      <c r="R21">
+        <v>3.831921931277</v>
+      </c>
+      <c r="S21">
+        <v>0.0001755170543217808</v>
+      </c>
+      <c r="T21">
+        <v>0.000155081885249623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>57.880028</v>
+      </c>
+      <c r="H22">
+        <v>115.760056</v>
+      </c>
+      <c r="I22">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J22">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3105913333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.931774</v>
+      </c>
+      <c r="O22">
+        <v>0.03128659259739168</v>
+      </c>
+      <c r="P22">
+        <v>0.03928326902580845</v>
+      </c>
+      <c r="Q22">
+        <v>17.97703506989067</v>
+      </c>
+      <c r="R22">
+        <v>107.862210419344</v>
+      </c>
+      <c r="S22">
+        <v>0.004940512302955586</v>
+      </c>
+      <c r="T22">
+        <v>0.004365296381037939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>57.880028</v>
+      </c>
+      <c r="H23">
+        <v>115.760056</v>
+      </c>
+      <c r="I23">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J23">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.393572666666666</v>
+      </c>
+      <c r="N23">
+        <v>10.180718</v>
+      </c>
+      <c r="O23">
+        <v>0.3418425244908446</v>
+      </c>
+      <c r="P23">
+        <v>0.4292155437583475</v>
+      </c>
+      <c r="Q23">
+        <v>196.4200809667013</v>
+      </c>
+      <c r="R23">
+        <v>1178.520485800208</v>
+      </c>
+      <c r="S23">
+        <v>0.05398086073653201</v>
+      </c>
+      <c r="T23">
+        <v>0.0476959557164804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>57.880028</v>
+      </c>
+      <c r="H24">
+        <v>115.760056</v>
+      </c>
+      <c r="I24">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J24">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1456443333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.436933</v>
+      </c>
+      <c r="O24">
+        <v>0.01467109488283225</v>
+      </c>
+      <c r="P24">
+        <v>0.01842094390405137</v>
+      </c>
+      <c r="Q24">
+        <v>8.429898091374666</v>
+      </c>
+      <c r="R24">
+        <v>50.579388548248</v>
+      </c>
+      <c r="S24">
+        <v>0.002316734382014623</v>
+      </c>
+      <c r="T24">
+        <v>0.002047000714396463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>57.880028</v>
+      </c>
+      <c r="H25">
+        <v>115.760056</v>
+      </c>
+      <c r="I25">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J25">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.01495533333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.044866</v>
+      </c>
+      <c r="O25">
+        <v>0.001506485761004895</v>
+      </c>
+      <c r="P25">
+        <v>0.001891535016121851</v>
+      </c>
+      <c r="Q25">
+        <v>0.8656151120826666</v>
+      </c>
+      <c r="R25">
+        <v>5.193690672495999</v>
+      </c>
+      <c r="S25">
+        <v>0.000237891403907391</v>
+      </c>
+      <c r="T25">
+        <v>0.0002101940893732259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>57.880028</v>
+      </c>
+      <c r="H26">
+        <v>115.760056</v>
+      </c>
+      <c r="I26">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J26">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.0625345</v>
+      </c>
+      <c r="N26">
+        <v>12.125069</v>
+      </c>
+      <c r="O26">
+        <v>0.6106933022679266</v>
+      </c>
+      <c r="P26">
+        <v>0.5111887082956706</v>
+      </c>
+      <c r="Q26">
+        <v>350.899666610966</v>
+      </c>
+      <c r="R26">
+        <v>1403.598666443864</v>
+      </c>
+      <c r="S26">
+        <v>0.09643548634435826</v>
+      </c>
+      <c r="T26">
+        <v>0.05680510491335378</v>
       </c>
     </row>
   </sheetData>
